--- a/Bibliografía/Casos de estudio/Casos.xlsx
+++ b/Bibliografía/Casos de estudio/Casos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\Paper-ITCRM.SF\Bibliografía\Casos de estudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346F1044-CE8F-44B0-BB81-80E34C7184C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE928390-2070-4448-B60D-2ADDBE8F17C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>US</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>M y X sin raw agricultural products</t>
+  </si>
+  <si>
+    <t>Berretoni &amp; Castresana (2009)</t>
+  </si>
+  <si>
+    <t>BCRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calo &amp; Comunale (2019) </t>
+  </si>
+  <si>
+    <t>Italia</t>
   </si>
 </sst>
 </file>
@@ -206,8 +218,8 @@
       <xdr:rowOff>42639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3807841</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2549</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>36252</xdr:rowOff>
     </xdr:to>
@@ -244,13 +256,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>175171</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>29195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2261144</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>45668</xdr:rowOff>
@@ -288,13 +300,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>649598</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>71274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1750616</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>19275</xdr:rowOff>
@@ -332,13 +344,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>445230</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>7298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>2561897</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>171523</xdr:rowOff>
@@ -376,14 +388,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>218966</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>150512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2739814</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2692189</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>167702</xdr:rowOff>
     </xdr:to>
@@ -410,6 +422,138 @@
         <a:xfrm>
           <a:off x="10867989" y="3434995"/>
           <a:ext cx="2520848" cy="1294489"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3693098</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>120432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3637150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC466938-A2A5-ED9C-4E1B-AE5EEF5C90B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7087064" y="2912242"/>
+          <a:ext cx="3644569" cy="1510862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142327</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5233276</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>78445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B24B2CC-62BF-B744-E3F0-A041613154BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16685172" y="2872424"/>
+          <a:ext cx="5090949" cy="2417400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514569</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>21897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2372203</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FC82425-3A12-7747-1CB7-F18000CBE75D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14364138" y="2813707"/>
+          <a:ext cx="1857634" cy="2448267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -684,33 +828,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:G14"/>
+  <dimension ref="C4:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="87" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
-    <col min="5" max="5" width="55.6328125" customWidth="1"/>
-    <col min="6" max="6" width="45.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="4" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="55.54296875" customWidth="1"/>
+    <col min="7" max="7" width="45.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="40.453125" customWidth="1"/>
+    <col min="10" max="10" width="81.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>20</v>
       </c>
@@ -718,13 +866,22 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
         <v>4</v>
       </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -734,14 +891,17 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>25</v>
       </c>
@@ -751,98 +911,101 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="G8" t="s">
         <v>30</v>
       </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>26</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>32</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>17</v>
       </c>
@@ -852,10 +1015,10 @@
       <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>31</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Bibliografía/Casos de estudio/Casos.xlsx
+++ b/Bibliografía/Casos de estudio/Casos.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\Paper-ITCRM.SF\Bibliografía\Casos de estudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE928390-2070-4448-B60D-2ADDBE8F17C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BB8EB9-5E59-4C44-B8DC-CCCDD659E269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>US</t>
   </si>
@@ -154,6 +166,30 @@
   </si>
   <si>
     <t>Italia</t>
+  </si>
+  <si>
+    <t>1997 a 2014 (anual)</t>
+  </si>
+  <si>
+    <t>Nominal y real</t>
+  </si>
+  <si>
+    <t>Geométrico?</t>
+  </si>
+  <si>
+    <t>28 países</t>
+  </si>
+  <si>
+    <t>31 países, todos los que &gt;2% en al menos un año desde 1996. 75%-83% del total</t>
+  </si>
+  <si>
+    <t>Exportaciones e importaciones manufactureras</t>
+  </si>
+  <si>
+    <t>Manufacturas</t>
+  </si>
+  <si>
+    <t>Promedio movil de 12 meses</t>
   </si>
 </sst>
 </file>
@@ -830,21 +866,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="J9" sqref="C9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.36328125" customWidth="1"/>
-    <col min="4" max="4" width="38.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="55.54296875" customWidth="1"/>
-    <col min="7" max="7" width="45.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="40.453125" customWidth="1"/>
-    <col min="10" max="10" width="81.26953125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="55.5703125" customWidth="1"/>
+    <col min="7" max="7" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="40.42578125" customWidth="1"/>
+    <col min="10" max="10" width="81.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -858,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>20</v>
       </c>
@@ -881,7 +917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -900,8 +936,11 @@
       <c r="I6" t="s">
         <v>37</v>
       </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>25</v>
       </c>
@@ -914,11 +953,17 @@
       <c r="G7" t="s">
         <v>28</v>
       </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
       <c r="I7" t="s">
         <v>35</v>
       </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -928,11 +973,17 @@
       <c r="G8" t="s">
         <v>30</v>
       </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
       <c r="I8" t="s">
         <v>30</v>
       </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -942,11 +993,17 @@
       <c r="G9" t="s">
         <v>27</v>
       </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
       <c r="I9" t="s">
         <v>33</v>
       </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -956,11 +1013,14 @@
       <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -970,11 +1030,17 @@
       <c r="G11" t="s">
         <v>26</v>
       </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
       <c r="I11" t="s">
         <v>34</v>
       </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>9</v>
       </c>
@@ -985,13 +1051,16 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
       </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -1001,11 +1070,17 @@
       <c r="G13" t="s">
         <v>32</v>
       </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
       <c r="I13" t="s">
         <v>36</v>
       </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>17</v>
       </c>
@@ -1020,6 +1095,9 @@
       </c>
       <c r="I14" t="s">
         <v>38</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Bibliografía/Casos de estudio/Casos.xlsx
+++ b/Bibliografía/Casos de estudio/Casos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\Paper-ITCRM.SF\Bibliografía\Casos de estudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BB8EB9-5E59-4C44-B8DC-CCCDD659E269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E86B1A-A43B-41EE-8BD3-C00705FA3124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,8 +324,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7619999" y="2583793"/>
-          <a:ext cx="2085973" cy="746358"/>
+          <a:off x="12748171" y="2886695"/>
+          <a:ext cx="2085973" cy="778473"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="J9" sqref="C9:J9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bibliografía/Casos de estudio/Casos.xlsx
+++ b/Bibliografía/Casos de estudio/Casos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\Paper-ITCRM.SF\Bibliografía\Casos de estudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E86B1A-A43B-41EE-8BD3-C00705FA3124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6513211-30CB-4C2D-81DC-669EFA1199C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,15 +29,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>US</t>
   </si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>Promedio movil de 12 meses</t>
+  </si>
+  <si>
+    <t>Usando todo me parece</t>
   </si>
 </sst>
 </file>
@@ -866,21 +866,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="95" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="55.5703125" customWidth="1"/>
-    <col min="7" max="7" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="40.42578125" customWidth="1"/>
-    <col min="10" max="10" width="81.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="55.54296875" customWidth="1"/>
+    <col min="7" max="7" width="45.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="40.453125" customWidth="1"/>
+    <col min="10" max="10" width="81.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -894,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>20</v>
       </c>
@@ -917,7 +917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -940,7 +940,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>25</v>
       </c>
@@ -963,7 +963,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -983,7 +983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>9</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>17</v>
       </c>
@@ -1089,6 +1089,9 @@
       </c>
       <c r="E14" t="s">
         <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
